--- a/dataset_v1/task_sheet_answers/NetIncome/1_NetIncome/1_NetIncome_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/NetIncome/1_NetIncome/1_NetIncome_gt1.xlsx
@@ -1,71 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\NetIncome\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0DF9DD-0E8C-4DA8-9958-01A0BFFC5F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{C859750F-4E0F-4D5B-9270-07BE73BCED2F}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Revenue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Expenses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net Income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ " numFmtId="164"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,33 +53,96 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,261 +442,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6102377-0BD5-4C8A-9BC7-35FBA2F42984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="12"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="1" width="12.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Total Expenses</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Net Income</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
         <v>39929</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4" t="n">
         <v>10828</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <f>A2-B2</f>
-        <v>29101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>55389</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5" t="n">
         <v>14977</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:C20" si="0">A3-B3</f>
-        <v>40412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="5">
+        <f>A3-B3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>52686</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5" t="n">
         <v>29650</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" si="0"/>
-        <v>23036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C4" s="5">
+        <f>A4-B4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
         <v>49490</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5" t="n">
         <v>28708</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>20782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C5" s="5">
+        <f>A5-B5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
         <v>38279</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5" t="n">
         <v>10990</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" si="0"/>
-        <v>27289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="5">
+        <f>A6-B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
         <v>30002</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5" t="n">
         <v>22022</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>7980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C7" s="5">
+        <f>A7-B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
         <v>56315</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5" t="n">
         <v>29700</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>26615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C8" s="5">
+        <f>A8-B8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
         <v>54870</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5" t="n">
         <v>23324</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>31546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C9" s="5">
+        <f>A9-B9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
         <v>39465</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5" t="n">
         <v>24834</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>14631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C10" s="5">
+        <f>A10-B10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
         <v>26176</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5" t="n">
         <v>24207</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C11" s="5">
+        <f>A11-B11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
         <v>32121</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5" t="n">
         <v>24773</v>
       </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>7348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C12" s="5">
+        <f>A12-B12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
         <v>59875</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5" t="n">
         <v>25871</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>34004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C13" s="5">
+        <f>A13-B13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>42235</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5" t="n">
         <v>22797</v>
       </c>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>19438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C14" s="5">
+        <f>A14-B14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
         <v>55101</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5" t="n">
         <v>29775</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>25326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="C15" s="5">
+        <f>A15-B15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>35972</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5" t="n">
         <v>20109</v>
       </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>15863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="C16" s="5">
+        <f>A16-B16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
         <v>51922</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5" t="n">
         <v>12614</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>39308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="C17" s="5">
+        <f>A17-B17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>42471</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5" t="n">
         <v>14555</v>
       </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>27916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="C18" s="5">
+        <f>A18-B18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
         <v>46706</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5" t="n">
         <v>16246</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>30460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="C19" s="5">
+        <f>A19-B19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
         <v>58782</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5" t="n">
         <v>25706</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>33076</v>
+      <c r="C20" s="5">
+        <f>A20-B20</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>